--- a/sfs/io.xlsx
+++ b/sfs/io.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\II\Mapping\sfs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuno_\Documents\Faculdade\4o_ano\2o-semestre\II\trabalho_pratico\InfInd2021\sfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC33FD-DEF4-485F-BF61-A78A0E169D34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD6D75B-675C-4677-ACF7-49A0117ABDF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="128">
   <si>
     <t>ART1</t>
   </si>
@@ -412,16 +412,23 @@
   </si>
   <si>
     <t>HEX</t>
+  </si>
+  <si>
+    <t>Var Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -475,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -602,24 +609,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,17 +807,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,16 +837,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>498108</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>174836</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>204466</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>362320</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>26966</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>58608</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>96363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -878,8 +869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6367322" y="174836"/>
-          <a:ext cx="10196569" cy="6202130"/>
+          <a:off x="9103537" y="386836"/>
+          <a:ext cx="10248367" cy="6062430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,7 +883,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1190,28 +1181,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L303" sqref="L303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.77734375" style="1"/>
+    <col min="10" max="10" width="10.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
         <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -1234,11 +1229,15 @@
         <f>DEC2HEX(F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J2" s="1" t="str">
+        <f>CONCATENATE(H2,"_",D2,"_", F2)</f>
+        <v>Wi1_O_0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="41">
         <v>1</v>
       </c>
@@ -1261,9 +1260,16 @@
         <f t="shared" ref="G3:G66" si="0">DEC2HEX(F3)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="67"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="66" t="str">
+        <f>$H$2</f>
+        <v>Wi1</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>CONCATENATE(H3,"_",D3,"_", F3)</f>
+        <v>Wi1_O_1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="41">
         <v>1</v>
       </c>
@@ -1286,9 +1292,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H4" s="67"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="66" t="str">
+        <f t="shared" ref="H4:H5" si="1">$H$2</f>
+        <v>Wi1</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" ref="J4:J67" si="2">CONCATENATE(H4,"_",D4,"_", F4)</f>
+        <v>Wi1_O_2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>1</v>
       </c>
@@ -1311,9 +1324,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="68"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>Wi1</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Wi1_I_0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="56">
         <v>2</v>
       </c>
@@ -1339,8 +1359,12 @@
       <c r="H6" s="65" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Wo1_O_3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="59">
         <v>2</v>
       </c>
@@ -1363,9 +1387,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="65"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="66" t="str">
+        <f>H6</f>
+        <v>Wo1</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Wo1_O_4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="59">
         <v>2</v>
       </c>
@@ -1388,9 +1419,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="65"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H8" s="66" t="str">
+        <f t="shared" ref="H8:H9" si="3">H7</f>
+        <v>Wo1</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Wo1_I_1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>2</v>
       </c>
@@ -1413,9 +1451,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>Wo1</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Wo1_R_0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>3</v>
       </c>
@@ -1438,11 +1483,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="67" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L7_O_5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>3</v>
       </c>
@@ -1465,9 +1514,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H11" s="65"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="67" t="str">
+        <f>H10</f>
+        <v>L7</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L7_O_6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>3</v>
       </c>
@@ -1490,9 +1546,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="67" t="str">
+        <f>H11</f>
+        <v>L7</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L7_I_2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -1515,11 +1578,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="67" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R3_O_7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1542,9 +1609,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="67" t="str">
+        <f>H13</f>
+        <v>R3</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R3_O_8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -1567,9 +1641,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="67" t="str">
+        <f t="shared" ref="H15:H19" si="4">H14</f>
+        <v>R3</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R3_O_9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -1592,9 +1673,16 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="H16" s="65"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>R3</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R3_O_10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>4</v>
       </c>
@@ -1617,9 +1705,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H17" s="65"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>R3</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R3_I_3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -1642,9 +1737,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H18" s="65"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>R3</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R3_I_4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -1667,9 +1769,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H19" s="65"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>R3</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R3_I_5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -1692,11 +1801,15 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="67" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R5_O_11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1719,9 +1832,16 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="H21" s="65"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="67" t="str">
+        <f>H20</f>
+        <v>R5</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R5_O_12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>5</v>
       </c>
@@ -1744,9 +1864,16 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="H22" s="65"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="67" t="str">
+        <f t="shared" ref="H22:H26" si="5">H21</f>
+        <v>R5</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R5_O_13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>5</v>
       </c>
@@ -1769,9 +1896,16 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="H23" s="65"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>R5</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R5_O_14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>5</v>
       </c>
@@ -1794,9 +1928,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H24" s="65"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>R5</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R5_I_6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>5</v>
       </c>
@@ -1819,9 +1960,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H25" s="65"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>R5</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R5_I_7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>5</v>
       </c>
@@ -1844,9 +1992,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H26" s="65"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H26" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>R5</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R5_I_8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -1869,11 +2024,15 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="H27" s="67" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R9_O_15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>6</v>
       </c>
@@ -1896,9 +2055,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H28" s="65"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="67" t="str">
+        <f>H27</f>
+        <v>R9</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R9_O_16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>6</v>
       </c>
@@ -1921,9 +2087,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H29" s="65"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H29" s="67" t="str">
+        <f t="shared" ref="H29:H33" si="6">H28</f>
+        <v>R9</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R9_O_17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>6</v>
       </c>
@@ -1946,9 +2119,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H30" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>R9</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R9_O_18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>6</v>
       </c>
@@ -1971,9 +2151,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H31" s="65"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H31" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>R9</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R9_I_9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>6</v>
       </c>
@@ -1996,9 +2183,16 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="H32" s="65"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>R9</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R9_I_10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>6</v>
       </c>
@@ -2021,9 +2215,16 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="H33" s="65"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H33" s="67" t="str">
+        <f t="shared" si="6"/>
+        <v>R9</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R9_I_11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>7</v>
       </c>
@@ -2046,11 +2247,15 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H34" s="65" t="s">
+      <c r="H34" s="67" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R8_O_19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>7</v>
       </c>
@@ -2073,9 +2278,16 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H35" s="65"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H35" s="67" t="str">
+        <f>H34</f>
+        <v>R8</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R8_O_20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>7</v>
       </c>
@@ -2098,9 +2310,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H36" s="65"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H36" s="67" t="str">
+        <f t="shared" ref="H36:H40" si="7">H35</f>
+        <v>R8</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R8_O_21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>7</v>
       </c>
@@ -2123,9 +2342,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H37" s="65"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H37" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>R8</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R8_O_22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>7</v>
       </c>
@@ -2148,9 +2374,16 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="H38" s="65"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H38" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>R8</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R8_I_12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>7</v>
       </c>
@@ -2173,9 +2406,16 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="H39" s="65"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H39" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>R8</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R8_I_13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>7</v>
       </c>
@@ -2198,9 +2438,16 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="H40" s="65"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H40" s="67" t="str">
+        <f t="shared" si="7"/>
+        <v>R8</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R8_I_14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>8</v>
       </c>
@@ -2223,11 +2470,15 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H41" s="65" t="s">
+      <c r="H41" s="67" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R7_O_23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>8</v>
       </c>
@@ -2250,9 +2501,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H42" s="65"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H42" s="67" t="str">
+        <f>H41</f>
+        <v>R7</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R7_O_24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>8</v>
       </c>
@@ -2275,9 +2533,16 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H43" s="65"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H43" s="67" t="str">
+        <f t="shared" ref="H43:H47" si="8">H42</f>
+        <v>R7</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R7_O_25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>8</v>
       </c>
@@ -2300,9 +2565,16 @@
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="H44" s="65"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>R7</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R7_O_26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>8</v>
       </c>
@@ -2325,9 +2597,16 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="H45" s="65"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H45" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>R7</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R7_I_15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>8</v>
       </c>
@@ -2350,9 +2629,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H46" s="65"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H46" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>R7</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R7_I_16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>8</v>
       </c>
@@ -2375,9 +2661,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H47" s="65"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H47" s="67" t="str">
+        <f t="shared" si="8"/>
+        <v>R7</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R7_I_17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>9</v>
       </c>
@@ -2400,11 +2693,15 @@
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
-      <c r="H48" s="65" t="s">
+      <c r="H48" s="67" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R6_O_27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>9</v>
       </c>
@@ -2427,9 +2724,16 @@
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="H49" s="65"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H49" s="67" t="str">
+        <f>H48</f>
+        <v>R6</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R6_O_28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>9</v>
       </c>
@@ -2452,9 +2756,16 @@
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
-      <c r="H50" s="65"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H50" s="67" t="str">
+        <f t="shared" ref="H50:H54" si="9">H49</f>
+        <v>R6</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R6_O_29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>9</v>
       </c>
@@ -2477,9 +2788,16 @@
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
-      <c r="H51" s="65"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H51" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>R6</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R6_O_30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>9</v>
       </c>
@@ -2502,9 +2820,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H52" s="65"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H52" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>R6</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R6_I_18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>9</v>
       </c>
@@ -2527,9 +2852,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H53" s="65"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H53" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>R6</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R6_I_19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>9</v>
       </c>
@@ -2552,9 +2884,16 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H54" s="65"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H54" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>R6</v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R6_I_20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>10</v>
       </c>
@@ -2577,11 +2916,15 @@
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
-      <c r="H55" s="65" t="s">
+      <c r="H55" s="67" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R2_O_31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>10</v>
       </c>
@@ -2604,9 +2947,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H56" s="67" t="str">
+        <f>H55</f>
+        <v>R2</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R2_O_32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>10</v>
       </c>
@@ -2629,9 +2979,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H57" s="65"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H57" s="67" t="str">
+        <f t="shared" ref="H57:H61" si="10">H56</f>
+        <v>R2</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R2_O_33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>10</v>
       </c>
@@ -2654,9 +3011,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H58" s="65"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H58" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>R2</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R2_O_34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>10</v>
       </c>
@@ -2679,9 +3043,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H59" s="65"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H59" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>R2</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R2_I_21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>10</v>
       </c>
@@ -2704,9 +3075,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H60" s="65"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H60" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>R2</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R2_I_22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>10</v>
       </c>
@@ -2729,9 +3107,16 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H61" s="65"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H61" s="67" t="str">
+        <f t="shared" si="10"/>
+        <v>R2</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>R2_I_23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>11</v>
       </c>
@@ -2754,11 +3139,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H62" s="67" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L4_O_35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>11</v>
       </c>
@@ -2781,9 +3170,16 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H63" s="65"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H63" s="67" t="str">
+        <f>H62</f>
+        <v>L4</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L4_O_36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>11</v>
       </c>
@@ -2806,9 +3202,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H64" s="65"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H64" s="67" t="str">
+        <f>H63</f>
+        <v>L4</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L4_I_24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>12</v>
       </c>
@@ -2831,11 +3234,15 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H65" s="65" t="s">
+      <c r="H65" s="67" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>M4_O_37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="32">
         <v>12</v>
       </c>
@@ -2858,9 +3265,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H66" s="65"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H66" s="67" t="str">
+        <f>H65</f>
+        <v>M4</v>
+      </c>
+      <c r="J66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>M4_O_38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="32">
         <v>12</v>
       </c>
@@ -2880,12 +3294,19 @@
         <v>39</v>
       </c>
       <c r="G67" s="34" t="str">
-        <f t="shared" ref="G67:G130" si="1">DEC2HEX(F67)</f>
+        <f t="shared" ref="G67:G130" si="11">DEC2HEX(F67)</f>
         <v>27</v>
       </c>
-      <c r="H67" s="65"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H67" s="67" t="str">
+        <f t="shared" ref="H67:H79" si="12">H66</f>
+        <v>M4</v>
+      </c>
+      <c r="J67" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>M4_O_39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="32">
         <v>12</v>
       </c>
@@ -2905,12 +3326,19 @@
         <v>40</v>
       </c>
       <c r="G68" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="H68" s="65"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H68" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <f t="shared" ref="J68:J131" si="13">CONCATENATE(H68,"_",D68,"_", F68)</f>
+        <v>M4_O_40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="32">
         <v>12</v>
       </c>
@@ -2930,12 +3358,19 @@
         <v>41</v>
       </c>
       <c r="G69" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="H69" s="65"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H69" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_O_41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="32">
         <v>12</v>
       </c>
@@ -2955,12 +3390,19 @@
         <v>42</v>
       </c>
       <c r="G70" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2A</v>
       </c>
-      <c r="H70" s="65"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H70" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_O_42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="32">
         <v>12</v>
       </c>
@@ -2980,12 +3422,19 @@
         <v>43</v>
       </c>
       <c r="G71" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2B</v>
       </c>
-      <c r="H71" s="65"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H71" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_O_43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="32">
         <v>12</v>
       </c>
@@ -3005,12 +3454,19 @@
         <v>44</v>
       </c>
       <c r="G72" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2C</v>
       </c>
-      <c r="H72" s="65"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H72" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J72" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_O_44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="32">
         <v>12</v>
       </c>
@@ -3030,12 +3486,19 @@
         <v>45</v>
       </c>
       <c r="G73" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2D</v>
       </c>
-      <c r="H73" s="65"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H73" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J73" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_O_45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="32">
         <v>12</v>
       </c>
@@ -3055,12 +3518,19 @@
         <v>25</v>
       </c>
       <c r="G74" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="H74" s="65"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H74" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J74" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_I_25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="32">
         <v>12</v>
       </c>
@@ -3080,12 +3550,19 @@
         <v>26</v>
       </c>
       <c r="G75" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1A</v>
       </c>
-      <c r="H75" s="65"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H75" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J75" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_I_26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="32">
         <v>12</v>
       </c>
@@ -3105,12 +3582,19 @@
         <v>27</v>
       </c>
       <c r="G76" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1B</v>
       </c>
-      <c r="H76" s="65"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H76" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J76" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_I_27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="32">
         <v>12</v>
       </c>
@@ -3130,12 +3614,19 @@
         <v>28</v>
       </c>
       <c r="G77" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1C</v>
       </c>
-      <c r="H77" s="65"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H77" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J77" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_I_28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="32">
         <v>12</v>
       </c>
@@ -3155,12 +3646,19 @@
         <v>29</v>
       </c>
       <c r="G78" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1D</v>
       </c>
-      <c r="H78" s="65"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H78" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J78" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_I_29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="35">
         <v>12</v>
       </c>
@@ -3180,12 +3678,19 @@
         <v>30</v>
       </c>
       <c r="G79" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1E</v>
       </c>
-      <c r="H79" s="65"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H79" s="67" t="str">
+        <f t="shared" si="12"/>
+        <v>M4</v>
+      </c>
+      <c r="J79" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M4_I_30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>13</v>
       </c>
@@ -3205,14 +3710,18 @@
         <v>46</v>
       </c>
       <c r="G80" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2E</v>
       </c>
-      <c r="H80" s="65" t="s">
+      <c r="H80" s="67" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J80" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="32">
         <v>13</v>
       </c>
@@ -3232,12 +3741,19 @@
         <v>47</v>
       </c>
       <c r="G81" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2F</v>
       </c>
-      <c r="H81" s="65"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H81" s="67" t="str">
+        <f>H80</f>
+        <v>M3</v>
+      </c>
+      <c r="J81" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="32">
         <v>13</v>
       </c>
@@ -3257,12 +3773,19 @@
         <v>48</v>
       </c>
       <c r="G82" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="H82" s="65"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H82" s="67" t="str">
+        <f t="shared" ref="H82:H94" si="14">H81</f>
+        <v>M3</v>
+      </c>
+      <c r="J82" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="32">
         <v>13</v>
       </c>
@@ -3282,12 +3805,19 @@
         <v>49</v>
       </c>
       <c r="G83" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="H83" s="65"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H83" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J83" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="32">
         <v>13</v>
       </c>
@@ -3307,12 +3837,19 @@
         <v>50</v>
       </c>
       <c r="G84" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="H84" s="65"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H84" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J84" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="32">
         <v>13</v>
       </c>
@@ -3332,12 +3869,19 @@
         <v>51</v>
       </c>
       <c r="G85" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="H85" s="65"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H85" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="32">
         <v>13</v>
       </c>
@@ -3357,12 +3901,19 @@
         <v>52</v>
       </c>
       <c r="G86" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="H86" s="65"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H86" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="32">
         <v>13</v>
       </c>
@@ -3382,12 +3933,19 @@
         <v>53</v>
       </c>
       <c r="G87" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="H87" s="65"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H87" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J87" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="32">
         <v>13</v>
       </c>
@@ -3407,12 +3965,19 @@
         <v>54</v>
       </c>
       <c r="G88" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="H88" s="65"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H88" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J88" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_O_54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="32">
         <v>13</v>
       </c>
@@ -3432,12 +3997,19 @@
         <v>31</v>
       </c>
       <c r="G89" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1F</v>
       </c>
-      <c r="H89" s="65"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H89" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_I_31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="32">
         <v>13</v>
       </c>
@@ -3457,12 +4029,19 @@
         <v>32</v>
       </c>
       <c r="G90" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="H90" s="65"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H90" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J90" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_I_32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="32">
         <v>13</v>
       </c>
@@ -3482,12 +4061,19 @@
         <v>33</v>
       </c>
       <c r="G91" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="H91" s="65"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H91" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J91" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_I_33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="32">
         <v>13</v>
       </c>
@@ -3507,12 +4093,19 @@
         <v>34</v>
       </c>
       <c r="G92" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="H92" s="65"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H92" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J92" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_I_34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="32">
         <v>13</v>
       </c>
@@ -3532,12 +4125,19 @@
         <v>35</v>
       </c>
       <c r="G93" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="H93" s="65"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H93" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J93" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_I_35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="35">
         <v>13</v>
       </c>
@@ -3557,12 +4157,19 @@
         <v>36</v>
       </c>
       <c r="G94" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="H94" s="65"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H94" s="67" t="str">
+        <f t="shared" si="14"/>
+        <v>M3</v>
+      </c>
+      <c r="J94" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M3_I_36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>14</v>
       </c>
@@ -3582,14 +4189,18 @@
         <v>55</v>
       </c>
       <c r="G95" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
-      <c r="H95" s="65" t="s">
+      <c r="H95" s="67" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J95" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="32">
         <v>14</v>
       </c>
@@ -3609,12 +4220,19 @@
         <v>56</v>
       </c>
       <c r="G96" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="H96" s="65"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H96" s="67" t="str">
+        <f>H95</f>
+        <v>M2</v>
+      </c>
+      <c r="J96" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="32">
         <v>14</v>
       </c>
@@ -3634,12 +4252,19 @@
         <v>57</v>
       </c>
       <c r="G97" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="H97" s="65"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H97" s="67" t="str">
+        <f t="shared" ref="H97:H109" si="15">H96</f>
+        <v>M2</v>
+      </c>
+      <c r="J97" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="32">
         <v>14</v>
       </c>
@@ -3659,12 +4284,19 @@
         <v>58</v>
       </c>
       <c r="G98" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3A</v>
       </c>
-      <c r="H98" s="65"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H98" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J98" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="32">
         <v>14</v>
       </c>
@@ -3684,12 +4316,19 @@
         <v>59</v>
       </c>
       <c r="G99" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3B</v>
       </c>
-      <c r="H99" s="65"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H99" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J99" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="32">
         <v>14</v>
       </c>
@@ -3709,12 +4348,19 @@
         <v>60</v>
       </c>
       <c r="G100" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3C</v>
       </c>
-      <c r="H100" s="65"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H100" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J100" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="32">
         <v>14</v>
       </c>
@@ -3734,12 +4380,19 @@
         <v>61</v>
       </c>
       <c r="G101" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3D</v>
       </c>
-      <c r="H101" s="65"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H101" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J101" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="32">
         <v>14</v>
       </c>
@@ -3759,12 +4412,19 @@
         <v>62</v>
       </c>
       <c r="G102" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3E</v>
       </c>
-      <c r="H102" s="65"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H102" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J102" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="32">
         <v>14</v>
       </c>
@@ -3784,12 +4444,19 @@
         <v>63</v>
       </c>
       <c r="G103" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3F</v>
       </c>
-      <c r="H103" s="65"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H103" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J103" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_O_63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="32">
         <v>14</v>
       </c>
@@ -3809,12 +4476,19 @@
         <v>37</v>
       </c>
       <c r="G104" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="H104" s="65"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H104" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J104" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_I_37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="32">
         <v>14</v>
       </c>
@@ -3834,12 +4508,19 @@
         <v>38</v>
       </c>
       <c r="G105" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H105" s="65"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="H105" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J105" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_I_38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="32">
         <v>14</v>
       </c>
@@ -3859,12 +4540,19 @@
         <v>39</v>
       </c>
       <c r="G106" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="H106" s="65"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H106" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J106" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_I_39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="32">
         <v>14</v>
       </c>
@@ -3884,12 +4572,19 @@
         <v>40</v>
       </c>
       <c r="G107" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="H107" s="65"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H107" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J107" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_I_40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
         <v>14</v>
       </c>
@@ -3909,12 +4604,19 @@
         <v>41</v>
       </c>
       <c r="G108" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="H108" s="65"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H108" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J108" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_I_41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="35">
         <v>14</v>
       </c>
@@ -3934,12 +4636,19 @@
         <v>42</v>
       </c>
       <c r="G109" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2A</v>
       </c>
-      <c r="H109" s="65"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H109" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v>M2</v>
+      </c>
+      <c r="J109" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M2_I_42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>15</v>
       </c>
@@ -3959,14 +4668,18 @@
         <v>64</v>
       </c>
       <c r="G110" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="H110" s="65" t="s">
+      <c r="H110" s="67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J110" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="32">
         <v>15</v>
       </c>
@@ -3986,12 +4699,19 @@
         <v>65</v>
       </c>
       <c r="G111" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
-      <c r="H111" s="65"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H111" s="67" t="str">
+        <f>H110</f>
+        <v>M1</v>
+      </c>
+      <c r="J111" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="32">
         <v>15</v>
       </c>
@@ -4011,12 +4731,19 @@
         <v>66</v>
       </c>
       <c r="G112" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="H112" s="65"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H112" s="67" t="str">
+        <f t="shared" ref="H112:H124" si="16">H111</f>
+        <v>M1</v>
+      </c>
+      <c r="J112" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="32">
         <v>15</v>
       </c>
@@ -4036,12 +4763,19 @@
         <v>67</v>
       </c>
       <c r="G113" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
-      <c r="H113" s="65"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H113" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J113" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="32">
         <v>15</v>
       </c>
@@ -4061,12 +4795,19 @@
         <v>68</v>
       </c>
       <c r="G114" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="H114" s="65"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H114" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J114" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="32">
         <v>15</v>
       </c>
@@ -4086,12 +4827,19 @@
         <v>69</v>
       </c>
       <c r="G115" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="H115" s="65"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H115" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J115" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="32">
         <v>15</v>
       </c>
@@ -4111,12 +4859,19 @@
         <v>70</v>
       </c>
       <c r="G116" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
-      <c r="H116" s="65"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H116" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J116" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="32">
         <v>15</v>
       </c>
@@ -4136,12 +4891,19 @@
         <v>71</v>
       </c>
       <c r="G117" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="H117" s="65"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H117" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J117" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="32">
         <v>15</v>
       </c>
@@ -4161,12 +4923,19 @@
         <v>72</v>
       </c>
       <c r="G118" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
-      <c r="H118" s="65"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H118" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J118" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_O_72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="32">
         <v>15</v>
       </c>
@@ -4186,12 +4955,19 @@
         <v>43</v>
       </c>
       <c r="G119" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2B</v>
       </c>
-      <c r="H119" s="65"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H119" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J119" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_I_43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="32">
         <v>15</v>
       </c>
@@ -4211,12 +4987,19 @@
         <v>44</v>
       </c>
       <c r="G120" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2C</v>
       </c>
-      <c r="H120" s="65"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H120" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J120" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_I_44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="32">
         <v>15</v>
       </c>
@@ -4236,12 +5019,19 @@
         <v>45</v>
       </c>
       <c r="G121" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2D</v>
       </c>
-      <c r="H121" s="65"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H121" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J121" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_I_45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="32">
         <v>15</v>
       </c>
@@ -4261,12 +5051,19 @@
         <v>46</v>
       </c>
       <c r="G122" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2E</v>
       </c>
-      <c r="H122" s="65"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H122" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J122" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_I_46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="32">
         <v>15</v>
       </c>
@@ -4286,12 +5083,19 @@
         <v>47</v>
       </c>
       <c r="G123" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2F</v>
       </c>
-      <c r="H123" s="65"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H123" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J123" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_I_47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="35">
         <v>15</v>
       </c>
@@ -4311,12 +5115,19 @@
         <v>48</v>
       </c>
       <c r="G124" s="37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="H124" s="65"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H124" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>M1</v>
+      </c>
+      <c r="J124" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>M1_I_48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>16</v>
       </c>
@@ -4336,14 +5147,18 @@
         <v>73</v>
       </c>
       <c r="G125" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
-      <c r="H125" s="65" t="s">
+      <c r="H125" s="67" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J125" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>L2_O_73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>16</v>
       </c>
@@ -4363,12 +5178,19 @@
         <v>74</v>
       </c>
       <c r="G126" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>4A</v>
       </c>
-      <c r="H126" s="65"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H126" s="67" t="str">
+        <f>H125</f>
+        <v>L2</v>
+      </c>
+      <c r="J126" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>L2_O_74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
         <v>16</v>
       </c>
@@ -4388,12 +5210,19 @@
         <v>49</v>
       </c>
       <c r="G127" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="H127" s="65"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H127" s="67" t="str">
+        <f>H126</f>
+        <v>L2</v>
+      </c>
+      <c r="J127" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>L2_I_49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>17</v>
       </c>
@@ -4413,14 +5242,18 @@
         <v>75</v>
       </c>
       <c r="G128" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>4B</v>
       </c>
-      <c r="H128" s="65" t="s">
+      <c r="H128" s="67" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J128" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>R4_O_75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>17</v>
       </c>
@@ -4440,12 +5273,19 @@
         <v>76</v>
       </c>
       <c r="G129" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>4C</v>
       </c>
-      <c r="H129" s="65"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H129" s="67" t="str">
+        <f>H128</f>
+        <v>R4</v>
+      </c>
+      <c r="J129" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>R4_O_76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>17</v>
       </c>
@@ -4465,12 +5305,19 @@
         <v>77</v>
       </c>
       <c r="G130" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>4D</v>
       </c>
-      <c r="H130" s="65"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H130" s="67" t="str">
+        <f t="shared" ref="H130:H134" si="17">H129</f>
+        <v>R4</v>
+      </c>
+      <c r="J130" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>R4_O_77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>17</v>
       </c>
@@ -4490,12 +5337,19 @@
         <v>78</v>
       </c>
       <c r="G131" s="7" t="str">
-        <f t="shared" ref="G131:G194" si="2">DEC2HEX(F131)</f>
+        <f t="shared" ref="G131:G194" si="18">DEC2HEX(F131)</f>
         <v>4E</v>
       </c>
-      <c r="H131" s="65"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H131" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>R4</v>
+      </c>
+      <c r="J131" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>R4_O_78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>17</v>
       </c>
@@ -4515,12 +5369,19 @@
         <v>50</v>
       </c>
       <c r="G132" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="H132" s="65"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H132" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>R4</v>
+      </c>
+      <c r="J132" s="1" t="str">
+        <f t="shared" ref="J132:J195" si="19">CONCATENATE(H132,"_",D132,"_", F132)</f>
+        <v>R4_I_50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>17</v>
       </c>
@@ -4540,12 +5401,19 @@
         <v>51</v>
       </c>
       <c r="G133" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
-      <c r="H133" s="65"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H133" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>R4</v>
+      </c>
+      <c r="J133" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R4_I_51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>17</v>
       </c>
@@ -4565,12 +5433,19 @@
         <v>52</v>
       </c>
       <c r="G134" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
-      <c r="H134" s="65"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H134" s="67" t="str">
+        <f t="shared" si="17"/>
+        <v>R4</v>
+      </c>
+      <c r="J134" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R4_I_52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>18</v>
       </c>
@@ -4590,14 +5465,18 @@
         <v>79</v>
       </c>
       <c r="G135" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4F</v>
       </c>
-      <c r="H135" s="65" t="s">
+      <c r="H135" s="67" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J135" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L3_O_79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>18</v>
       </c>
@@ -4617,12 +5496,19 @@
         <v>80</v>
       </c>
       <c r="G136" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="H136" s="65"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H136" s="67" t="str">
+        <f>H135</f>
+        <v>L3</v>
+      </c>
+      <c r="J136" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L3_O_80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="17">
         <v>18</v>
       </c>
@@ -4642,12 +5528,19 @@
         <v>53</v>
       </c>
       <c r="G137" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
-      <c r="H137" s="65"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H137" s="67" t="str">
+        <f>H136</f>
+        <v>L3</v>
+      </c>
+      <c r="J137" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L3_I_53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>19</v>
       </c>
@@ -4667,14 +5560,18 @@
         <v>81</v>
       </c>
       <c r="G138" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
-      <c r="H138" s="65" t="s">
+      <c r="H138" s="67" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J138" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L5_O_81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>19</v>
       </c>
@@ -4694,12 +5591,19 @@
         <v>82</v>
       </c>
       <c r="G139" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
-      <c r="H139" s="65"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H139" s="67" t="str">
+        <f>H138</f>
+        <v>L5</v>
+      </c>
+      <c r="J139" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L5_O_82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="17">
         <v>19</v>
       </c>
@@ -4719,12 +5623,19 @@
         <v>54</v>
       </c>
       <c r="G140" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
-      <c r="H140" s="65"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H140" s="67" t="str">
+        <f>H139</f>
+        <v>L5</v>
+      </c>
+      <c r="J140" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L5_I_54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="47">
         <v>20</v>
       </c>
@@ -4744,14 +5655,18 @@
         <v>83</v>
       </c>
       <c r="G141" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
-      <c r="H141" s="65" t="s">
+      <c r="H141" s="67" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J141" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P3_O_83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="50">
         <v>20</v>
       </c>
@@ -4771,12 +5686,19 @@
         <v>84</v>
       </c>
       <c r="G142" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>54</v>
       </c>
-      <c r="H142" s="65"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H142" s="67" t="str">
+        <f>H141</f>
+        <v>P3</v>
+      </c>
+      <c r="J142" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P3_O_84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="50">
         <v>20</v>
       </c>
@@ -4796,12 +5718,19 @@
         <v>85</v>
       </c>
       <c r="G143" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
-      <c r="H143" s="65"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H143" s="67" t="str">
+        <f t="shared" ref="H143:H147" si="20">H142</f>
+        <v>P3</v>
+      </c>
+      <c r="J143" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P3_O_85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="50">
         <v>20</v>
       </c>
@@ -4821,12 +5750,19 @@
         <v>86</v>
       </c>
       <c r="G144" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
-      <c r="H144" s="65"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H144" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>P3</v>
+      </c>
+      <c r="J144" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P3_O_86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="50">
         <v>20</v>
       </c>
@@ -4846,12 +5782,19 @@
         <v>55</v>
       </c>
       <c r="G145" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
-      <c r="H145" s="65"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H145" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>P3</v>
+      </c>
+      <c r="J145" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P3_I_55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="50">
         <v>20</v>
       </c>
@@ -4871,12 +5814,19 @@
         <v>56</v>
       </c>
       <c r="G146" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>38</v>
       </c>
-      <c r="H146" s="65"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H146" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>P3</v>
+      </c>
+      <c r="J146" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P3_I_56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="53">
         <v>20</v>
       </c>
@@ -4896,12 +5846,19 @@
         <v>57</v>
       </c>
       <c r="G147" s="55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
-      <c r="H147" s="65"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H147" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>P3</v>
+      </c>
+      <c r="J147" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P3_I_57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="47">
         <v>21</v>
       </c>
@@ -4921,14 +5878,18 @@
         <v>87</v>
       </c>
       <c r="G148" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
-      <c r="H148" s="65" t="s">
+      <c r="H148" s="67" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J148" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P2_O_87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="50">
         <v>21</v>
       </c>
@@ -4948,12 +5909,19 @@
         <v>88</v>
       </c>
       <c r="G149" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
-      <c r="H149" s="65"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H149" s="67" t="str">
+        <f>H148</f>
+        <v>P2</v>
+      </c>
+      <c r="J149" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P2_O_88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="50">
         <v>21</v>
       </c>
@@ -4973,12 +5941,19 @@
         <v>89</v>
       </c>
       <c r="G150" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
-      <c r="H150" s="65"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H150" s="67" t="str">
+        <f t="shared" ref="H150:H154" si="21">H149</f>
+        <v>P2</v>
+      </c>
+      <c r="J150" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P2_O_89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="50">
         <v>21</v>
       </c>
@@ -4998,12 +5973,19 @@
         <v>90</v>
       </c>
       <c r="G151" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5A</v>
       </c>
-      <c r="H151" s="65"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H151" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>P2</v>
+      </c>
+      <c r="J151" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P2_O_90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="50">
         <v>21</v>
       </c>
@@ -5023,12 +6005,19 @@
         <v>58</v>
       </c>
       <c r="G152" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3A</v>
       </c>
-      <c r="H152" s="65"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H152" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>P2</v>
+      </c>
+      <c r="J152" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P2_I_58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="50">
         <v>21</v>
       </c>
@@ -5048,12 +6037,19 @@
         <v>59</v>
       </c>
       <c r="G153" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3B</v>
       </c>
-      <c r="H153" s="65"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H153" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>P2</v>
+      </c>
+      <c r="J153" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P2_I_59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="53">
         <v>21</v>
       </c>
@@ -5073,12 +6069,19 @@
         <v>60</v>
       </c>
       <c r="G154" s="55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3C</v>
       </c>
-      <c r="H154" s="65"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H154" s="67" t="str">
+        <f t="shared" si="21"/>
+        <v>P2</v>
+      </c>
+      <c r="J154" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P2_I_60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="47">
         <v>22</v>
       </c>
@@ -5098,14 +6101,18 @@
         <v>91</v>
       </c>
       <c r="G155" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5B</v>
       </c>
-      <c r="H155" s="65" t="s">
+      <c r="H155" s="67" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J155" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P1_O_91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="50">
         <v>22</v>
       </c>
@@ -5125,12 +6132,19 @@
         <v>92</v>
       </c>
       <c r="G156" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5C</v>
       </c>
-      <c r="H156" s="65"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H156" s="67" t="str">
+        <f>H155</f>
+        <v>P1</v>
+      </c>
+      <c r="J156" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P1_O_92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="50">
         <v>22</v>
       </c>
@@ -5150,12 +6164,19 @@
         <v>93</v>
       </c>
       <c r="G157" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5D</v>
       </c>
-      <c r="H157" s="65"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H157" s="67" t="str">
+        <f t="shared" ref="H157:H161" si="22">H156</f>
+        <v>P1</v>
+      </c>
+      <c r="J157" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P1_O_93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="50">
         <v>22</v>
       </c>
@@ -5175,12 +6196,19 @@
         <v>94</v>
       </c>
       <c r="G158" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5E</v>
       </c>
-      <c r="H158" s="65"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H158" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>P1</v>
+      </c>
+      <c r="J158" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P1_O_94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="50">
         <v>22</v>
       </c>
@@ -5200,12 +6228,19 @@
         <v>61</v>
       </c>
       <c r="G159" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3D</v>
       </c>
-      <c r="H159" s="65"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H159" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>P1</v>
+      </c>
+      <c r="J159" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P1_I_61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="50">
         <v>22</v>
       </c>
@@ -5225,12 +6260,19 @@
         <v>62</v>
       </c>
       <c r="G160" s="52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3E</v>
       </c>
-      <c r="H160" s="65"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H160" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>P1</v>
+      </c>
+      <c r="J160" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P1_I_62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="53">
         <v>22</v>
       </c>
@@ -5250,12 +6292,19 @@
         <v>63</v>
       </c>
       <c r="G161" s="55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>3F</v>
       </c>
-      <c r="H161" s="65"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H161" s="67" t="str">
+        <f t="shared" si="22"/>
+        <v>P1</v>
+      </c>
+      <c r="J161" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>P1_I_63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>23</v>
       </c>
@@ -5275,14 +6324,18 @@
         <v>95</v>
       </c>
       <c r="G162" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>5F</v>
       </c>
-      <c r="H162" s="65" t="s">
+      <c r="H162" s="67" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J162" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L6_O_95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>23</v>
       </c>
@@ -5302,12 +6355,19 @@
         <v>96</v>
       </c>
       <c r="G163" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="H163" s="65"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H163" s="67" t="str">
+        <f>H162</f>
+        <v>L6</v>
+      </c>
+      <c r="J163" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L6_O_96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="17">
         <v>23</v>
       </c>
@@ -5327,12 +6387,19 @@
         <v>64</v>
       </c>
       <c r="G164" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
-      <c r="H164" s="65"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H164" s="67" t="str">
+        <f>H163</f>
+        <v>L6</v>
+      </c>
+      <c r="J164" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L6_I_64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>24</v>
       </c>
@@ -5352,14 +6419,18 @@
         <v>97</v>
       </c>
       <c r="G165" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
-      <c r="H165" s="65" t="s">
+      <c r="H165" s="67" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J165" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R1_O_97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>24</v>
       </c>
@@ -5379,12 +6450,19 @@
         <v>98</v>
       </c>
       <c r="G166" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>62</v>
       </c>
-      <c r="H166" s="65"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H166" s="67" t="str">
+        <f>H165</f>
+        <v>R1</v>
+      </c>
+      <c r="J166" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R1_O_98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>24</v>
       </c>
@@ -5404,12 +6482,19 @@
         <v>99</v>
       </c>
       <c r="G167" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>63</v>
       </c>
-      <c r="H167" s="65"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H167" s="67" t="str">
+        <f t="shared" ref="H167:H171" si="23">H166</f>
+        <v>R1</v>
+      </c>
+      <c r="J167" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R1_O_99</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>24</v>
       </c>
@@ -5429,12 +6514,19 @@
         <v>100</v>
       </c>
       <c r="G168" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
-      <c r="H168" s="65"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H168" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>R1</v>
+      </c>
+      <c r="J168" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R1_O_100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>24</v>
       </c>
@@ -5454,12 +6546,19 @@
         <v>65</v>
       </c>
       <c r="G169" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
-      <c r="H169" s="65"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H169" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>R1</v>
+      </c>
+      <c r="J169" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R1_I_65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>24</v>
       </c>
@@ -5479,12 +6578,19 @@
         <v>66</v>
       </c>
       <c r="G170" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
-      <c r="H170" s="65"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H170" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>R1</v>
+      </c>
+      <c r="J170" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R1_I_66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>24</v>
       </c>
@@ -5504,12 +6610,19 @@
         <v>67</v>
       </c>
       <c r="G171" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
-      <c r="H171" s="65"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H171" s="67" t="str">
+        <f t="shared" si="23"/>
+        <v>R1</v>
+      </c>
+      <c r="J171" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R1_I_67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>25</v>
       </c>
@@ -5529,14 +6642,18 @@
         <v>101</v>
       </c>
       <c r="G172" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>65</v>
       </c>
-      <c r="H172" s="65" t="s">
+      <c r="H172" s="67" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J172" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L1_O_101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>25</v>
       </c>
@@ -5556,12 +6673,19 @@
         <v>102</v>
       </c>
       <c r="G173" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>66</v>
       </c>
-      <c r="H173" s="65"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H173" s="67" t="str">
+        <f>H172</f>
+        <v>L1</v>
+      </c>
+      <c r="J173" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L1_O_102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="17">
         <v>25</v>
       </c>
@@ -5581,12 +6705,19 @@
         <v>68</v>
       </c>
       <c r="G174" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
-      <c r="H174" s="65"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H174" s="67" t="str">
+        <f>H173</f>
+        <v>L1</v>
+      </c>
+      <c r="J174" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L1_I_68</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="20">
         <v>26</v>
       </c>
@@ -5606,14 +6737,18 @@
         <v>69</v>
       </c>
       <c r="G175" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
-      <c r="H175" s="65" t="s">
+      <c r="H175" s="67" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J175" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O1_I_69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>27</v>
       </c>
@@ -5633,12 +6768,19 @@
         <v>70</v>
       </c>
       <c r="G176" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
-      <c r="H176" s="65"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H176" s="67" t="str">
+        <f>H175</f>
+        <v>O1</v>
+      </c>
+      <c r="J176" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O1_I_70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="26">
         <v>28</v>
       </c>
@@ -5658,12 +6800,19 @@
         <v>71</v>
       </c>
       <c r="G177" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
-      <c r="H177" s="65"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H177" s="67" t="str">
+        <f>H175</f>
+        <v>O1</v>
+      </c>
+      <c r="J177" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O1_I_71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="20">
         <v>30</v>
       </c>
@@ -5683,14 +6832,18 @@
         <v>72</v>
       </c>
       <c r="G178" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
-      <c r="H178" s="65" t="s">
+      <c r="H178" s="67" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J178" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O2_I_72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>31</v>
       </c>
@@ -5710,12 +6863,19 @@
         <v>73</v>
       </c>
       <c r="G179" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
-      <c r="H179" s="65"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H179" s="67" t="str">
+        <f>H178</f>
+        <v>O2</v>
+      </c>
+      <c r="J179" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O2_I_73</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="26">
         <v>32</v>
       </c>
@@ -5735,12 +6895,19 @@
         <v>74</v>
       </c>
       <c r="G180" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4A</v>
       </c>
-      <c r="H180" s="65"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H180" s="67" t="str">
+        <f>H178</f>
+        <v>O2</v>
+      </c>
+      <c r="J180" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O2_I_74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="20">
         <v>34</v>
       </c>
@@ -5760,14 +6927,18 @@
         <v>75</v>
       </c>
       <c r="G181" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4B</v>
       </c>
-      <c r="H181" s="65" t="s">
+      <c r="H181" s="67" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J181" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O3_I_75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>35</v>
       </c>
@@ -5787,12 +6958,19 @@
         <v>76</v>
       </c>
       <c r="G182" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4C</v>
       </c>
-      <c r="H182" s="65"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H182" s="67" t="str">
+        <f>H181</f>
+        <v>O3</v>
+      </c>
+      <c r="J182" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O3_I_76</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="26">
         <v>36</v>
       </c>
@@ -5812,12 +6990,19 @@
         <v>77</v>
       </c>
       <c r="G183" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4D</v>
       </c>
-      <c r="H183" s="65"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H183" s="67" t="str">
+        <f>H182</f>
+        <v>O3</v>
+      </c>
+      <c r="J183" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>O3_I_77</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="38">
         <v>38</v>
       </c>
@@ -5837,14 +7022,18 @@
         <v>103</v>
       </c>
       <c r="G184" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>67</v>
       </c>
-      <c r="H184" s="65" t="s">
+      <c r="H184" s="67" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J184" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Wi2_O_103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="41">
         <v>38</v>
       </c>
@@ -5864,12 +7053,19 @@
         <v>104</v>
       </c>
       <c r="G185" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
-      <c r="H185" s="65"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H185" s="67" t="str">
+        <f>H184</f>
+        <v>Wi2</v>
+      </c>
+      <c r="J185" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Wi2_O_104</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="41">
         <v>38</v>
       </c>
@@ -5889,12 +7085,19 @@
         <v>105</v>
       </c>
       <c r="G186" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>69</v>
       </c>
-      <c r="H186" s="65"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H186" s="67" t="str">
+        <f t="shared" ref="H186:H187" si="24">H185</f>
+        <v>Wi2</v>
+      </c>
+      <c r="J186" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Wi2_O_105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="44">
         <v>38</v>
       </c>
@@ -5914,12 +7117,19 @@
         <v>78</v>
       </c>
       <c r="G187" s="46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4E</v>
       </c>
-      <c r="H187" s="65"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H187" s="67" t="str">
+        <f t="shared" si="24"/>
+        <v>Wi2</v>
+      </c>
+      <c r="J187" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Wi2_I_78</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="56">
         <v>39</v>
       </c>
@@ -5939,14 +7149,18 @@
         <v>106</v>
       </c>
       <c r="G188" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>6A</v>
       </c>
-      <c r="H188" s="65" t="s">
+      <c r="H188" s="67" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J188" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Wo2_O_106</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="59">
         <v>39</v>
       </c>
@@ -5966,12 +7180,19 @@
         <v>107</v>
       </c>
       <c r="G189" s="61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>6B</v>
       </c>
-      <c r="H189" s="65"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H189" s="67" t="str">
+        <f>H188</f>
+        <v>Wo2</v>
+      </c>
+      <c r="J189" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Wo2_O_107</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="59">
         <v>39</v>
       </c>
@@ -5991,12 +7212,19 @@
         <v>79</v>
       </c>
       <c r="G190" s="61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>4F</v>
       </c>
-      <c r="H190" s="65"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H190" s="67" t="str">
+        <f t="shared" ref="H190:H191" si="25">H189</f>
+        <v>Wo2</v>
+      </c>
+      <c r="J190" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Wo2_I_79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="62">
         <v>39</v>
       </c>
@@ -6016,12 +7244,19 @@
         <v>1</v>
       </c>
       <c r="G191" s="64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="H191" s="65"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H191" s="67" t="str">
+        <f t="shared" si="25"/>
+        <v>Wo2</v>
+      </c>
+      <c r="J191" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Wo2_R_1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>40</v>
       </c>
@@ -6041,14 +7276,18 @@
         <v>108</v>
       </c>
       <c r="G192" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>6C</v>
       </c>
-      <c r="H192" s="65" t="s">
+      <c r="H192" s="67" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J192" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L8_O_108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="14">
         <v>40</v>
       </c>
@@ -6068,12 +7307,19 @@
         <v>109</v>
       </c>
       <c r="G193" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>6D</v>
       </c>
-      <c r="H193" s="65"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H193" s="67" t="str">
+        <f>H192</f>
+        <v>L8</v>
+      </c>
+      <c r="J193" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L8_O_109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="17">
         <v>40</v>
       </c>
@@ -6093,12 +7339,19 @@
         <v>80</v>
       </c>
       <c r="G194" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="H194" s="65"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H194" s="67" t="str">
+        <f>H193</f>
+        <v>L8</v>
+      </c>
+      <c r="J194" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>L8_I_80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>41</v>
       </c>
@@ -6118,14 +7371,18 @@
         <v>110</v>
       </c>
       <c r="G195" s="4" t="str">
-        <f t="shared" ref="G195:G258" si="3">DEC2HEX(F195)</f>
+        <f t="shared" ref="G195:G258" si="26">DEC2HEX(F195)</f>
         <v>6E</v>
       </c>
-      <c r="H195" s="65" t="s">
+      <c r="H195" s="67" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J195" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>R10_O_110</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>41</v>
       </c>
@@ -6145,12 +7402,19 @@
         <v>111</v>
       </c>
       <c r="G196" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>6F</v>
       </c>
-      <c r="H196" s="65"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H196" s="67" t="str">
+        <f>H195</f>
+        <v>R10</v>
+      </c>
+      <c r="J196" s="1" t="str">
+        <f t="shared" ref="J196:J259" si="27">CONCATENATE(H196,"_",D196,"_", F196)</f>
+        <v>R10_O_111</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>41</v>
       </c>
@@ -6170,12 +7434,19 @@
         <v>112</v>
       </c>
       <c r="G197" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>70</v>
       </c>
-      <c r="H197" s="65"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H197" s="67" t="str">
+        <f t="shared" ref="H197:H201" si="28">H196</f>
+        <v>R10</v>
+      </c>
+      <c r="J197" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R10_O_112</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>41</v>
       </c>
@@ -6195,12 +7466,19 @@
         <v>113</v>
       </c>
       <c r="G198" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>71</v>
       </c>
-      <c r="H198" s="65"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H198" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>R10</v>
+      </c>
+      <c r="J198" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R10_O_113</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>41</v>
       </c>
@@ -6220,12 +7498,19 @@
         <v>81</v>
       </c>
       <c r="G199" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>51</v>
       </c>
-      <c r="H199" s="65"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H199" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>R10</v>
+      </c>
+      <c r="J199" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R10_I_81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>41</v>
       </c>
@@ -6245,12 +7530,19 @@
         <v>82</v>
       </c>
       <c r="G200" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>52</v>
       </c>
-      <c r="H200" s="65"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H200" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>R10</v>
+      </c>
+      <c r="J200" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R10_I_82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>41</v>
       </c>
@@ -6270,12 +7562,19 @@
         <v>83</v>
       </c>
       <c r="G201" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>53</v>
       </c>
-      <c r="H201" s="65"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H201" s="67" t="str">
+        <f t="shared" si="28"/>
+        <v>R10</v>
+      </c>
+      <c r="J201" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R10_I_83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>42</v>
       </c>
@@ -6295,14 +7594,18 @@
         <v>114</v>
       </c>
       <c r="G202" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>72</v>
       </c>
-      <c r="H202" s="65" t="s">
+      <c r="H202" s="67" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J202" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R16_O_114</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>42</v>
       </c>
@@ -6322,12 +7625,19 @@
         <v>115</v>
       </c>
       <c r="G203" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>73</v>
       </c>
-      <c r="H203" s="65"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H203" s="67" t="str">
+        <f>H202</f>
+        <v>R16</v>
+      </c>
+      <c r="J203" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R16_O_115</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>42</v>
       </c>
@@ -6347,12 +7657,19 @@
         <v>116</v>
       </c>
       <c r="G204" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>74</v>
       </c>
-      <c r="H204" s="65"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H204" s="67" t="str">
+        <f t="shared" ref="H204:H208" si="29">H203</f>
+        <v>R16</v>
+      </c>
+      <c r="J204" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R16_O_116</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>42</v>
       </c>
@@ -6372,12 +7689,19 @@
         <v>117</v>
       </c>
       <c r="G205" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>75</v>
       </c>
-      <c r="H205" s="65"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H205" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>R16</v>
+      </c>
+      <c r="J205" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R16_O_117</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>42</v>
       </c>
@@ -6397,12 +7721,19 @@
         <v>84</v>
       </c>
       <c r="G206" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>54</v>
       </c>
-      <c r="H206" s="65"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H206" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>R16</v>
+      </c>
+      <c r="J206" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R16_I_84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
         <v>42</v>
       </c>
@@ -6422,12 +7753,19 @@
         <v>85</v>
       </c>
       <c r="G207" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>55</v>
       </c>
-      <c r="H207" s="65"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H207" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>R16</v>
+      </c>
+      <c r="J207" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R16_I_85</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>42</v>
       </c>
@@ -6447,12 +7785,19 @@
         <v>86</v>
       </c>
       <c r="G208" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
-      <c r="H208" s="65"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H208" s="67" t="str">
+        <f t="shared" si="29"/>
+        <v>R16</v>
+      </c>
+      <c r="J208" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R16_I_86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>43</v>
       </c>
@@ -6472,14 +7817,18 @@
         <v>118</v>
       </c>
       <c r="G209" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
-      <c r="H209" s="65" t="s">
+      <c r="H209" s="67" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J209" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R15_O_118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
         <v>43</v>
       </c>
@@ -6499,12 +7848,19 @@
         <v>119</v>
       </c>
       <c r="G210" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>77</v>
       </c>
-      <c r="H210" s="65"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H210" s="67" t="str">
+        <f>H209</f>
+        <v>R15</v>
+      </c>
+      <c r="J210" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R15_O_119</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
         <v>43</v>
       </c>
@@ -6524,12 +7880,19 @@
         <v>120</v>
       </c>
       <c r="G211" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>78</v>
       </c>
-      <c r="H211" s="65"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H211" s="67" t="str">
+        <f t="shared" ref="H211:H215" si="30">H210</f>
+        <v>R15</v>
+      </c>
+      <c r="J211" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R15_O_120</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
         <v>43</v>
       </c>
@@ -6549,12 +7912,19 @@
         <v>121</v>
       </c>
       <c r="G212" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
-      <c r="H212" s="65"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H212" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>R15</v>
+      </c>
+      <c r="J212" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R15_O_121</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>43</v>
       </c>
@@ -6574,12 +7944,19 @@
         <v>87</v>
       </c>
       <c r="G213" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>57</v>
       </c>
-      <c r="H213" s="65"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H213" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>R15</v>
+      </c>
+      <c r="J213" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R15_I_87</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>43</v>
       </c>
@@ -6599,12 +7976,19 @@
         <v>88</v>
       </c>
       <c r="G214" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>58</v>
       </c>
-      <c r="H214" s="65"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H214" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>R15</v>
+      </c>
+      <c r="J214" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R15_I_88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>43</v>
       </c>
@@ -6624,12 +8008,19 @@
         <v>89</v>
       </c>
       <c r="G215" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>59</v>
       </c>
-      <c r="H215" s="65"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H215" s="67" t="str">
+        <f t="shared" si="30"/>
+        <v>R15</v>
+      </c>
+      <c r="J215" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R15_I_89</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>44</v>
       </c>
@@ -6649,14 +8040,18 @@
         <v>122</v>
       </c>
       <c r="G216" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>7A</v>
       </c>
-      <c r="H216" s="65" t="s">
+      <c r="H216" s="67" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J216" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R14_O_122</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>44</v>
       </c>
@@ -6676,12 +8071,19 @@
         <v>123</v>
       </c>
       <c r="G217" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>7B</v>
       </c>
-      <c r="H217" s="65"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H217" s="67" t="str">
+        <f>H216</f>
+        <v>R14</v>
+      </c>
+      <c r="J217" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R14_O_123</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>44</v>
       </c>
@@ -6701,12 +8103,19 @@
         <v>124</v>
       </c>
       <c r="G218" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>7C</v>
       </c>
-      <c r="H218" s="65"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H218" s="67" t="str">
+        <f t="shared" ref="H218:H222" si="31">H217</f>
+        <v>R14</v>
+      </c>
+      <c r="J218" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R14_O_124</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
         <v>44</v>
       </c>
@@ -6726,12 +8135,19 @@
         <v>125</v>
       </c>
       <c r="G219" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>7D</v>
       </c>
-      <c r="H219" s="65"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H219" s="67" t="str">
+        <f t="shared" si="31"/>
+        <v>R14</v>
+      </c>
+      <c r="J219" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R14_O_125</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>44</v>
       </c>
@@ -6751,12 +8167,19 @@
         <v>90</v>
       </c>
       <c r="G220" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>5A</v>
       </c>
-      <c r="H220" s="65"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H220" s="67" t="str">
+        <f t="shared" si="31"/>
+        <v>R14</v>
+      </c>
+      <c r="J220" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R14_I_90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>44</v>
       </c>
@@ -6776,12 +8199,19 @@
         <v>91</v>
       </c>
       <c r="G221" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>5B</v>
       </c>
-      <c r="H221" s="65"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H221" s="67" t="str">
+        <f t="shared" si="31"/>
+        <v>R14</v>
+      </c>
+      <c r="J221" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R14_I_91</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>44</v>
       </c>
@@ -6801,12 +8231,19 @@
         <v>92</v>
       </c>
       <c r="G222" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>5C</v>
       </c>
-      <c r="H222" s="65"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H222" s="67" t="str">
+        <f t="shared" si="31"/>
+        <v>R14</v>
+      </c>
+      <c r="J222" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R14_I_92</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>45</v>
       </c>
@@ -6826,14 +8263,18 @@
         <v>126</v>
       </c>
       <c r="G223" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>7E</v>
       </c>
-      <c r="H223" s="65" t="s">
+      <c r="H223" s="67" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J223" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R13_O_126</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>45</v>
       </c>
@@ -6853,12 +8294,19 @@
         <v>127</v>
       </c>
       <c r="G224" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>7F</v>
       </c>
-      <c r="H224" s="65"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H224" s="67" t="str">
+        <f>H223</f>
+        <v>R13</v>
+      </c>
+      <c r="J224" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R13_O_127</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>45</v>
       </c>
@@ -6878,12 +8326,19 @@
         <v>128</v>
       </c>
       <c r="G225" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
-      <c r="H225" s="65"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H225" s="67" t="str">
+        <f t="shared" ref="H225:H229" si="32">H224</f>
+        <v>R13</v>
+      </c>
+      <c r="J225" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R13_O_128</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>45</v>
       </c>
@@ -6903,12 +8358,19 @@
         <v>129</v>
       </c>
       <c r="G226" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>81</v>
       </c>
-      <c r="H226" s="65"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H226" s="67" t="str">
+        <f t="shared" si="32"/>
+        <v>R13</v>
+      </c>
+      <c r="J226" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R13_O_129</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>45</v>
       </c>
@@ -6928,12 +8390,19 @@
         <v>93</v>
       </c>
       <c r="G227" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>5D</v>
       </c>
-      <c r="H227" s="65"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H227" s="67" t="str">
+        <f t="shared" si="32"/>
+        <v>R13</v>
+      </c>
+      <c r="J227" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R13_I_93</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>45</v>
       </c>
@@ -6953,12 +8422,19 @@
         <v>94</v>
       </c>
       <c r="G228" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>5E</v>
       </c>
-      <c r="H228" s="65"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H228" s="67" t="str">
+        <f t="shared" si="32"/>
+        <v>R13</v>
+      </c>
+      <c r="J228" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R13_I_94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>45</v>
       </c>
@@ -6978,12 +8454,19 @@
         <v>95</v>
       </c>
       <c r="G229" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>5F</v>
       </c>
-      <c r="H229" s="65"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H229" s="67" t="str">
+        <f t="shared" si="32"/>
+        <v>R13</v>
+      </c>
+      <c r="J229" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R13_I_95</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>46</v>
       </c>
@@ -7003,14 +8486,18 @@
         <v>130</v>
       </c>
       <c r="G230" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>82</v>
       </c>
-      <c r="H230" s="65" t="s">
+      <c r="H230" s="67" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J230" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R12_O_130</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>46</v>
       </c>
@@ -7030,12 +8517,19 @@
         <v>131</v>
       </c>
       <c r="G231" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>83</v>
       </c>
-      <c r="H231" s="65"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H231" s="67" t="str">
+        <f>H230</f>
+        <v>R12</v>
+      </c>
+      <c r="J231" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R12_O_131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>46</v>
       </c>
@@ -7055,12 +8549,19 @@
         <v>132</v>
       </c>
       <c r="G232" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>84</v>
       </c>
-      <c r="H232" s="65"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H232" s="67" t="str">
+        <f t="shared" ref="H232:H236" si="33">H231</f>
+        <v>R12</v>
+      </c>
+      <c r="J232" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R12_O_132</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>46</v>
       </c>
@@ -7080,12 +8581,19 @@
         <v>133</v>
       </c>
       <c r="G233" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>85</v>
       </c>
-      <c r="H233" s="65"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H233" s="67" t="str">
+        <f t="shared" si="33"/>
+        <v>R12</v>
+      </c>
+      <c r="J233" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R12_O_133</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>46</v>
       </c>
@@ -7105,12 +8613,19 @@
         <v>96</v>
       </c>
       <c r="G234" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>60</v>
       </c>
-      <c r="H234" s="65"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H234" s="67" t="str">
+        <f t="shared" si="33"/>
+        <v>R12</v>
+      </c>
+      <c r="J234" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R12_I_96</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>46</v>
       </c>
@@ -7130,12 +8645,19 @@
         <v>97</v>
       </c>
       <c r="G235" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>61</v>
       </c>
-      <c r="H235" s="65"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H235" s="67" t="str">
+        <f t="shared" si="33"/>
+        <v>R12</v>
+      </c>
+      <c r="J235" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R12_I_97</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>46</v>
       </c>
@@ -7155,12 +8677,19 @@
         <v>98</v>
       </c>
       <c r="G236" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>62</v>
       </c>
-      <c r="H236" s="65"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H236" s="67" t="str">
+        <f t="shared" si="33"/>
+        <v>R12</v>
+      </c>
+      <c r="J236" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R12_I_98</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>47</v>
       </c>
@@ -7180,14 +8709,18 @@
         <v>134</v>
       </c>
       <c r="G237" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>86</v>
       </c>
-      <c r="H237" s="65" t="s">
+      <c r="H237" s="67" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J237" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R11_O_134</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>47</v>
       </c>
@@ -7207,12 +8740,19 @@
         <v>135</v>
       </c>
       <c r="G238" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>87</v>
       </c>
-      <c r="H238" s="65"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H238" s="67" t="str">
+        <f>H237</f>
+        <v>R11</v>
+      </c>
+      <c r="J238" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R11_O_135</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>47</v>
       </c>
@@ -7232,12 +8772,19 @@
         <v>136</v>
       </c>
       <c r="G239" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>88</v>
       </c>
-      <c r="H239" s="65"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H239" s="67" t="str">
+        <f t="shared" ref="H239:H243" si="34">H238</f>
+        <v>R11</v>
+      </c>
+      <c r="J239" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R11_O_136</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>47</v>
       </c>
@@ -7257,12 +8804,19 @@
         <v>137</v>
       </c>
       <c r="G240" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>89</v>
       </c>
-      <c r="H240" s="65"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H240" s="67" t="str">
+        <f t="shared" si="34"/>
+        <v>R11</v>
+      </c>
+      <c r="J240" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R11_O_137</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>47</v>
       </c>
@@ -7282,12 +8836,19 @@
         <v>99</v>
       </c>
       <c r="G241" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>63</v>
       </c>
-      <c r="H241" s="65"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H241" s="67" t="str">
+        <f t="shared" si="34"/>
+        <v>R11</v>
+      </c>
+      <c r="J241" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R11_I_99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>47</v>
       </c>
@@ -7307,12 +8868,19 @@
         <v>100</v>
       </c>
       <c r="G242" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>64</v>
       </c>
-      <c r="H242" s="65"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H242" s="67" t="str">
+        <f t="shared" si="34"/>
+        <v>R11</v>
+      </c>
+      <c r="J242" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R11_I_100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>47</v>
       </c>
@@ -7332,12 +8900,19 @@
         <v>101</v>
       </c>
       <c r="G243" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>65</v>
       </c>
-      <c r="H243" s="65"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H243" s="67" t="str">
+        <f t="shared" si="34"/>
+        <v>R11</v>
+      </c>
+      <c r="J243" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>R11_I_101</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="11">
         <v>48</v>
       </c>
@@ -7357,14 +8932,18 @@
         <v>138</v>
       </c>
       <c r="G244" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>8A</v>
       </c>
-      <c r="H244" s="65" t="s">
+      <c r="H244" s="67" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J244" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>L10_O_138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="14">
         <v>48</v>
       </c>
@@ -7384,12 +8963,19 @@
         <v>139</v>
       </c>
       <c r="G245" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>8B</v>
       </c>
-      <c r="H245" s="65"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H245" s="67" t="str">
+        <f>H244</f>
+        <v>L10</v>
+      </c>
+      <c r="J245" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>L10_O_139</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="17">
         <v>48</v>
       </c>
@@ -7409,12 +8995,19 @@
         <v>102</v>
       </c>
       <c r="G246" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>66</v>
       </c>
-      <c r="H246" s="65"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H246" s="67" t="str">
+        <f>H245</f>
+        <v>L10</v>
+      </c>
+      <c r="J246" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>L10_I_102</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="29">
         <v>49</v>
       </c>
@@ -7434,14 +9027,18 @@
         <v>140</v>
       </c>
       <c r="G247" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>8C</v>
       </c>
-      <c r="H247" s="65" t="s">
+      <c r="H247" s="67" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J247" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_140</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="32">
         <v>49</v>
       </c>
@@ -7461,12 +9058,19 @@
         <v>141</v>
       </c>
       <c r="G248" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>8D</v>
       </c>
-      <c r="H248" s="65"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H248" s="67" t="str">
+        <f>H247</f>
+        <v>M8</v>
+      </c>
+      <c r="J248" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_141</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="32">
         <v>49</v>
       </c>
@@ -7486,12 +9090,19 @@
         <v>142</v>
       </c>
       <c r="G249" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>8E</v>
       </c>
-      <c r="H249" s="65"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H249" s="67" t="str">
+        <f t="shared" ref="H249:H260" si="35">H248</f>
+        <v>M8</v>
+      </c>
+      <c r="J249" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_142</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="32">
         <v>49</v>
       </c>
@@ -7511,12 +9122,19 @@
         <v>143</v>
       </c>
       <c r="G250" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>8F</v>
       </c>
-      <c r="H250" s="65"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H250" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J250" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_143</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="32">
         <v>49</v>
       </c>
@@ -7536,12 +9154,19 @@
         <v>144</v>
       </c>
       <c r="G251" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
-      <c r="H251" s="65"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H251" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J251" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_144</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="32">
         <v>49</v>
       </c>
@@ -7561,12 +9186,19 @@
         <v>145</v>
       </c>
       <c r="G252" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>91</v>
       </c>
-      <c r="H252" s="65"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H252" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J252" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_145</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="32">
         <v>49</v>
       </c>
@@ -7586,12 +9218,19 @@
         <v>146</v>
       </c>
       <c r="G253" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>92</v>
       </c>
-      <c r="H253" s="65"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H253" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J253" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_146</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="32">
         <v>49</v>
       </c>
@@ -7611,12 +9250,19 @@
         <v>147</v>
       </c>
       <c r="G254" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>93</v>
       </c>
-      <c r="H254" s="65"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H254" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J254" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_147</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="32">
         <v>49</v>
       </c>
@@ -7636,12 +9282,19 @@
         <v>148</v>
       </c>
       <c r="G255" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>94</v>
       </c>
-      <c r="H255" s="65"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H255" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J255" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_O_148</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="32">
         <v>49</v>
       </c>
@@ -7661,12 +9314,19 @@
         <v>103</v>
       </c>
       <c r="G256" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>67</v>
       </c>
-      <c r="H256" s="65"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H256" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J256" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_I_103</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="32">
         <v>49</v>
       </c>
@@ -7686,12 +9346,19 @@
         <v>104</v>
       </c>
       <c r="G257" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>68</v>
       </c>
-      <c r="H257" s="65"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H257" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J257" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_I_104</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="32">
         <v>49</v>
       </c>
@@ -7711,12 +9378,19 @@
         <v>105</v>
       </c>
       <c r="G258" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>69</v>
       </c>
-      <c r="H258" s="65"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H258" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J258" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_I_105</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="32">
         <v>49</v>
       </c>
@@ -7736,12 +9410,19 @@
         <v>106</v>
       </c>
       <c r="G259" s="34" t="str">
-        <f t="shared" ref="G259:G309" si="4">DEC2HEX(F259)</f>
+        <f t="shared" ref="G259:G309" si="36">DEC2HEX(F259)</f>
         <v>6A</v>
       </c>
-      <c r="H259" s="65"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H259" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J259" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M8_I_106</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="32">
         <v>49</v>
       </c>
@@ -7761,12 +9442,19 @@
         <v>107</v>
       </c>
       <c r="G260" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>6B</v>
       </c>
-      <c r="H260" s="65"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H260" s="67" t="str">
+        <f t="shared" si="35"/>
+        <v>M8</v>
+      </c>
+      <c r="J260" s="1" t="str">
+        <f t="shared" ref="J260:J309" si="37">CONCATENATE(H260,"_",D260,"_", F260)</f>
+        <v>M8_I_107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="35">
         <v>49</v>
       </c>
@@ -7786,12 +9474,19 @@
         <v>108</v>
       </c>
       <c r="G261" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>6C</v>
       </c>
-      <c r="H261" s="65"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H261" s="67" t="str">
+        <f>H260</f>
+        <v>M8</v>
+      </c>
+      <c r="J261" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M8_I_108</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="29">
         <v>50</v>
       </c>
@@ -7811,14 +9506,18 @@
         <v>149</v>
       </c>
       <c r="G262" s="31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>95</v>
       </c>
-      <c r="H262" s="65" t="s">
+      <c r="H262" s="67" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J262" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_149</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="32">
         <v>50</v>
       </c>
@@ -7838,12 +9537,19 @@
         <v>150</v>
       </c>
       <c r="G263" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>96</v>
       </c>
-      <c r="H263" s="65"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H263" s="67" t="str">
+        <f>H262</f>
+        <v>M7</v>
+      </c>
+      <c r="J263" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_150</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="32">
         <v>50</v>
       </c>
@@ -7863,12 +9569,19 @@
         <v>151</v>
       </c>
       <c r="G264" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>97</v>
       </c>
-      <c r="H264" s="65"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H264" s="67" t="str">
+        <f t="shared" ref="H264:H276" si="38">H263</f>
+        <v>M7</v>
+      </c>
+      <c r="J264" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_151</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="32">
         <v>50</v>
       </c>
@@ -7888,12 +9601,19 @@
         <v>152</v>
       </c>
       <c r="G265" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>98</v>
       </c>
-      <c r="H265" s="65"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H265" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J265" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_152</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="32">
         <v>50</v>
       </c>
@@ -7913,12 +9633,19 @@
         <v>153</v>
       </c>
       <c r="G266" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>99</v>
       </c>
-      <c r="H266" s="65"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H266" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J266" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_153</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="32">
         <v>50</v>
       </c>
@@ -7938,12 +9665,19 @@
         <v>154</v>
       </c>
       <c r="G267" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>9A</v>
       </c>
-      <c r="H267" s="65"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H267" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J267" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_154</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="32">
         <v>50</v>
       </c>
@@ -7963,12 +9697,19 @@
         <v>155</v>
       </c>
       <c r="G268" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>9B</v>
       </c>
-      <c r="H268" s="65"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H268" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J268" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_155</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="32">
         <v>50</v>
       </c>
@@ -7988,12 +9729,19 @@
         <v>156</v>
       </c>
       <c r="G269" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>9C</v>
       </c>
-      <c r="H269" s="65"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H269" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J269" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_156</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="32">
         <v>50</v>
       </c>
@@ -8013,12 +9761,19 @@
         <v>157</v>
       </c>
       <c r="G270" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>9D</v>
       </c>
-      <c r="H270" s="65"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H270" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J270" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_O_157</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="32">
         <v>50</v>
       </c>
@@ -8038,12 +9793,19 @@
         <v>109</v>
       </c>
       <c r="G271" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>6D</v>
       </c>
-      <c r="H271" s="65"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H271" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J271" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_I_109</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="32">
         <v>50</v>
       </c>
@@ -8063,12 +9825,19 @@
         <v>110</v>
       </c>
       <c r="G272" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>6E</v>
       </c>
-      <c r="H272" s="65"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H272" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J272" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_I_110</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="32">
         <v>50</v>
       </c>
@@ -8088,12 +9857,19 @@
         <v>111</v>
       </c>
       <c r="G273" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>6F</v>
       </c>
-      <c r="H273" s="65"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H273" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J273" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_I_111</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="32">
         <v>50</v>
       </c>
@@ -8113,12 +9889,19 @@
         <v>112</v>
       </c>
       <c r="G274" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>70</v>
       </c>
-      <c r="H274" s="65"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H274" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J274" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_I_112</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="32">
         <v>50</v>
       </c>
@@ -8138,12 +9921,19 @@
         <v>113</v>
       </c>
       <c r="G275" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>71</v>
       </c>
-      <c r="H275" s="65"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H275" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J275" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_I_113</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="35">
         <v>50</v>
       </c>
@@ -8163,12 +9953,19 @@
         <v>114</v>
       </c>
       <c r="G276" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>72</v>
       </c>
-      <c r="H276" s="65"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H276" s="67" t="str">
+        <f t="shared" si="38"/>
+        <v>M7</v>
+      </c>
+      <c r="J276" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M7_I_114</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="29">
         <v>51</v>
       </c>
@@ -8188,14 +9985,18 @@
         <v>158</v>
       </c>
       <c r="G277" s="31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>9E</v>
       </c>
-      <c r="H277" s="65" t="s">
+      <c r="H277" s="67" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J277" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_158</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="32">
         <v>51</v>
       </c>
@@ -8215,12 +10016,19 @@
         <v>159</v>
       </c>
       <c r="G278" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>9F</v>
       </c>
-      <c r="H278" s="65"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H278" s="67" t="str">
+        <f>H277</f>
+        <v>M6</v>
+      </c>
+      <c r="J278" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_159</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="32">
         <v>51</v>
       </c>
@@ -8240,12 +10048,19 @@
         <v>160</v>
       </c>
       <c r="G279" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A0</v>
       </c>
-      <c r="H279" s="65"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H279" s="67" t="str">
+        <f t="shared" ref="H279:H291" si="39">H278</f>
+        <v>M6</v>
+      </c>
+      <c r="J279" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_160</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="32">
         <v>51</v>
       </c>
@@ -8265,12 +10080,19 @@
         <v>161</v>
       </c>
       <c r="G280" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A1</v>
       </c>
-      <c r="H280" s="65"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H280" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J280" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_161</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="32">
         <v>51</v>
       </c>
@@ -8290,12 +10112,19 @@
         <v>162</v>
       </c>
       <c r="G281" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A2</v>
       </c>
-      <c r="H281" s="65"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H281" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J281" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_162</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="32">
         <v>51</v>
       </c>
@@ -8315,12 +10144,19 @@
         <v>163</v>
       </c>
       <c r="G282" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A3</v>
       </c>
-      <c r="H282" s="65"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H282" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J282" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="32">
         <v>51</v>
       </c>
@@ -8340,12 +10176,19 @@
         <v>164</v>
       </c>
       <c r="G283" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A4</v>
       </c>
-      <c r="H283" s="65"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H283" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J283" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_164</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="32">
         <v>51</v>
       </c>
@@ -8365,12 +10208,19 @@
         <v>165</v>
       </c>
       <c r="G284" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A5</v>
       </c>
-      <c r="H284" s="65"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H284" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J284" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_165</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="32">
         <v>51</v>
       </c>
@@ -8390,12 +10240,19 @@
         <v>166</v>
       </c>
       <c r="G285" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A6</v>
       </c>
-      <c r="H285" s="65"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H285" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J285" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_O_166</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="32">
         <v>51</v>
       </c>
@@ -8415,12 +10272,19 @@
         <v>115</v>
       </c>
       <c r="G286" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>73</v>
       </c>
-      <c r="H286" s="65"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H286" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J286" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_I_115</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="32">
         <v>51</v>
       </c>
@@ -8440,12 +10304,19 @@
         <v>116</v>
       </c>
       <c r="G287" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>74</v>
       </c>
-      <c r="H287" s="65"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H287" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J287" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_I_116</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="32">
         <v>51</v>
       </c>
@@ -8465,12 +10336,19 @@
         <v>117</v>
       </c>
       <c r="G288" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>75</v>
       </c>
-      <c r="H288" s="65"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H288" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J288" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_I_117</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="32">
         <v>51</v>
       </c>
@@ -8490,12 +10368,19 @@
         <v>118</v>
       </c>
       <c r="G289" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>76</v>
       </c>
-      <c r="H289" s="65"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H289" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J289" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_I_118</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="32">
         <v>51</v>
       </c>
@@ -8515,12 +10400,19 @@
         <v>119</v>
       </c>
       <c r="G290" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>77</v>
       </c>
-      <c r="H290" s="65"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H290" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J290" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_I_119</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="35">
         <v>51</v>
       </c>
@@ -8540,12 +10432,19 @@
         <v>120</v>
       </c>
       <c r="G291" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>78</v>
       </c>
-      <c r="H291" s="65"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H291" s="67" t="str">
+        <f t="shared" si="39"/>
+        <v>M6</v>
+      </c>
+      <c r="J291" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M6_I_120</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="29">
         <v>52</v>
       </c>
@@ -8565,14 +10464,18 @@
         <v>167</v>
       </c>
       <c r="G292" s="31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A7</v>
       </c>
-      <c r="H292" s="65" t="s">
+      <c r="H292" s="67" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J292" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_167</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="32">
         <v>52</v>
       </c>
@@ -8592,12 +10495,19 @@
         <v>168</v>
       </c>
       <c r="G293" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A8</v>
       </c>
-      <c r="H293" s="65"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H293" s="67" t="str">
+        <f>H292</f>
+        <v>M5</v>
+      </c>
+      <c r="J293" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_168</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="32">
         <v>52</v>
       </c>
@@ -8617,12 +10527,19 @@
         <v>169</v>
       </c>
       <c r="G294" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>A9</v>
       </c>
-      <c r="H294" s="65"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H294" s="67" t="str">
+        <f t="shared" ref="H294:H306" si="40">H293</f>
+        <v>M5</v>
+      </c>
+      <c r="J294" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_169</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="32">
         <v>52</v>
       </c>
@@ -8642,12 +10559,19 @@
         <v>170</v>
       </c>
       <c r="G295" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>AA</v>
       </c>
-      <c r="H295" s="65"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H295" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J295" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_170</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="32">
         <v>52</v>
       </c>
@@ -8667,12 +10591,19 @@
         <v>171</v>
       </c>
       <c r="G296" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>AB</v>
       </c>
-      <c r="H296" s="65"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H296" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J296" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_171</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="32">
         <v>52</v>
       </c>
@@ -8692,12 +10623,19 @@
         <v>172</v>
       </c>
       <c r="G297" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>AC</v>
       </c>
-      <c r="H297" s="65"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H297" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J297" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_172</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="32">
         <v>52</v>
       </c>
@@ -8717,12 +10655,19 @@
         <v>173</v>
       </c>
       <c r="G298" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>AD</v>
       </c>
-      <c r="H298" s="65"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H298" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J298" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_173</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="32">
         <v>52</v>
       </c>
@@ -8742,12 +10687,19 @@
         <v>174</v>
       </c>
       <c r="G299" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>AE</v>
       </c>
-      <c r="H299" s="65"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H299" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J299" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_174</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="32">
         <v>52</v>
       </c>
@@ -8767,12 +10719,19 @@
         <v>175</v>
       </c>
       <c r="G300" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>AF</v>
       </c>
-      <c r="H300" s="65"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H300" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J300" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_O_175</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="32">
         <v>52</v>
       </c>
@@ -8792,12 +10751,19 @@
         <v>121</v>
       </c>
       <c r="G301" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>79</v>
       </c>
-      <c r="H301" s="65"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H301" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J301" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_I_121</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="32">
         <v>52</v>
       </c>
@@ -8817,12 +10783,19 @@
         <v>122</v>
       </c>
       <c r="G302" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>7A</v>
       </c>
-      <c r="H302" s="65"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H302" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J302" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_I_122</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="32">
         <v>52</v>
       </c>
@@ -8842,12 +10815,19 @@
         <v>123</v>
       </c>
       <c r="G303" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>7B</v>
       </c>
-      <c r="H303" s="65"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H303" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J303" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_I_123</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="32">
         <v>52</v>
       </c>
@@ -8867,12 +10847,19 @@
         <v>124</v>
       </c>
       <c r="G304" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>7C</v>
       </c>
-      <c r="H304" s="65"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H304" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J304" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_I_124</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="32">
         <v>52</v>
       </c>
@@ -8892,12 +10879,19 @@
         <v>125</v>
       </c>
       <c r="G305" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>7D</v>
       </c>
-      <c r="H305" s="65"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H305" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J305" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_I_125</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="35">
         <v>52</v>
       </c>
@@ -8917,12 +10911,19 @@
         <v>126</v>
       </c>
       <c r="G306" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>7E</v>
       </c>
-      <c r="H306" s="65"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H306" s="67" t="str">
+        <f t="shared" si="40"/>
+        <v>M5</v>
+      </c>
+      <c r="J306" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>M5_I_126</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="11">
         <v>53</v>
       </c>
@@ -8942,14 +10943,18 @@
         <v>176</v>
       </c>
       <c r="G307" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>B0</v>
       </c>
-      <c r="H307" s="65" t="s">
+      <c r="H307" s="67" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J307" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>L9_O_176</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="14">
         <v>53</v>
       </c>
@@ -8969,12 +10974,19 @@
         <v>177</v>
       </c>
       <c r="G308" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>B1</v>
       </c>
-      <c r="H308" s="65"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H308" s="67" t="str">
+        <f>H307</f>
+        <v>L9</v>
+      </c>
+      <c r="J308" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>L9_O_177</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="17">
         <v>53</v>
       </c>
@@ -8994,60 +11006,23 @@
         <v>127</v>
       </c>
       <c r="G309" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="36"/>
         <v>7F</v>
       </c>
-      <c r="H309" s="65"/>
+      <c r="H309" s="67" t="str">
+        <f>H308</f>
+        <v>L9</v>
+      </c>
+      <c r="J309" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>L9_I_127</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="44">
-    <mergeCell ref="H65:H79"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="H34:H40"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="H48:H54"/>
-    <mergeCell ref="H55:H61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H165:H171"/>
-    <mergeCell ref="H80:H94"/>
-    <mergeCell ref="H95:H109"/>
-    <mergeCell ref="H110:H124"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="H128:H134"/>
-    <mergeCell ref="H135:H137"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="H141:H147"/>
-    <mergeCell ref="H148:H154"/>
-    <mergeCell ref="H155:H161"/>
-    <mergeCell ref="H162:H164"/>
-    <mergeCell ref="H202:H208"/>
-    <mergeCell ref="H307:H309"/>
-    <mergeCell ref="H292:H306"/>
-    <mergeCell ref="H277:H291"/>
-    <mergeCell ref="H262:H276"/>
-    <mergeCell ref="H247:H261"/>
-    <mergeCell ref="H244:H246"/>
-    <mergeCell ref="H237:H243"/>
-    <mergeCell ref="H230:H236"/>
-    <mergeCell ref="H223:H229"/>
-    <mergeCell ref="H216:H222"/>
-    <mergeCell ref="H209:H215"/>
-    <mergeCell ref="H175:H177"/>
-    <mergeCell ref="H172:H174"/>
-    <mergeCell ref="H195:H201"/>
-    <mergeCell ref="H192:H194"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="H184:H187"/>
-    <mergeCell ref="H181:H183"/>
-    <mergeCell ref="H178:H180"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sfs/io.xlsx
+++ b/sfs/io.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuno_\Documents\Faculdade\4o_ano\2o-semestre\II\trabalho_pratico\InfInd2021\sfs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\II\InfInd2021\sfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD6D75B-675C-4677-ACF7-49A0117ABDF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4888B89-97BB-425B-84B6-C659E6D6C97C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1181,21 +1181,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L303" sqref="L303"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L186" sqref="L186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="1" max="2" width="8.81640625" style="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="8.77734375" style="1"/>
-    <col min="10" max="10" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.81640625" style="1"/>
+    <col min="10" max="10" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
         <v>125</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>Wi1_O_0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="41">
         <v>1</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>Wi1_O_1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="41">
         <v>1</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>Wi1_O_2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="44">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>Wi1_I_0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="56">
         <v>2</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>Wo1_O_3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="59">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>Wo1_O_4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="59">
         <v>2</v>
       </c>
@@ -1424,11 +1424,11 @@
         <v>Wo1</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(H8,"_",D8,"_", F8)</f>
         <v>Wo1_I_1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="62">
         <v>2</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>Wo1_R_0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>3</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>L7_O_5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>3</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>L7_O_6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>3</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>L7_I_2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>R3_O_7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>R3_O_8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>R3_O_9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>R3_O_10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>4</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>R3_I_3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>R3_I_4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>R3_I_5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>R5_O_11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>R5_O_12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>5</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>R5_O_13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>5</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>R5_O_14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>5</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>R5_I_6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>5</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>R5_I_7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>5</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>R5_I_8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>R9_O_15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>6</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>R9_O_16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>6</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>R9_O_17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>6</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>R9_O_18</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>6</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>R9_I_9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>6</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>R9_I_10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>6</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>R9_I_11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>7</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>R8_O_19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>7</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>R8_O_20</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>7</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>R8_O_21</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>7</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>R8_O_22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>7</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>R8_I_12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>7</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>R8_I_13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>7</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>R8_I_14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>8</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>R7_O_23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>8</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>R7_O_24</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>8</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>R7_O_25</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>8</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>R7_O_26</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>8</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>R7_I_15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>8</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>R7_I_16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>8</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>R7_I_17</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>9</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>R6_O_27</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>9</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>R6_O_28</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>9</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>R6_O_29</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>9</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>R6_O_30</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>9</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>R6_I_18</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>9</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>R6_I_19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>9</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>R6_I_20</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>10</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>R2_O_31</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>10</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>R2_O_32</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>10</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>R2_O_33</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>10</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>R2_O_34</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>10</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>R2_I_21</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>10</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>R2_I_22</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>10</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>R2_I_23</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>11</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>L4_O_35</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="14">
         <v>11</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>L4_O_36</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>11</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>L4_I_24</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="29">
         <v>12</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>M4_O_37</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="32">
         <v>12</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>M4_O_38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="32">
         <v>12</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>M4_O_39</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="32">
         <v>12</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>M4_O_40</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="32">
         <v>12</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>M4_O_41</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="32">
         <v>12</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>M4_O_42</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="32">
         <v>12</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>M4_O_43</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="32">
         <v>12</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>M4_O_44</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="32">
         <v>12</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>M4_O_45</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="32">
         <v>12</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>M4_I_25</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="32">
         <v>12</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>M4_I_26</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="32">
         <v>12</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>M4_I_27</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="32">
         <v>12</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>M4_I_28</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="32">
         <v>12</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>M4_I_29</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="35">
         <v>12</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>M4_I_30</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="29">
         <v>13</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>M3_O_46</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="32">
         <v>13</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>M3_O_47</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="32">
         <v>13</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>M3_O_48</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="32">
         <v>13</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>M3_O_49</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="32">
         <v>13</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>M3_O_50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="32">
         <v>13</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>M3_O_51</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="32">
         <v>13</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>M3_O_52</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="32">
         <v>13</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>M3_O_53</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="32">
         <v>13</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>M3_O_54</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="32">
         <v>13</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>M3_I_31</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="32">
         <v>13</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>M3_I_32</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="32">
         <v>13</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>M3_I_33</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="32">
         <v>13</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>M3_I_34</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="32">
         <v>13</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>M3_I_35</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="35">
         <v>13</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>M3_I_36</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="29">
         <v>14</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>M2_O_55</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="32">
         <v>14</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>M2_O_56</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="32">
         <v>14</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>M2_O_57</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="32">
         <v>14</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>M2_O_58</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="32">
         <v>14</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>M2_O_59</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="32">
         <v>14</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>M2_O_60</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="32">
         <v>14</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>M2_O_61</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="32">
         <v>14</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>M2_O_62</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="32">
         <v>14</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>M2_O_63</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="32">
         <v>14</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>M2_I_37</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="32">
         <v>14</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>M2_I_38</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="32">
         <v>14</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>M2_I_39</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="32">
         <v>14</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>M2_I_40</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="32">
         <v>14</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>M2_I_41</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="35">
         <v>14</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>M2_I_42</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="29">
         <v>15</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>M1_O_64</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="32">
         <v>15</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>M1_O_65</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="32">
         <v>15</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>M1_O_66</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="32">
         <v>15</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>M1_O_67</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="32">
         <v>15</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>M1_O_68</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="32">
         <v>15</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>M1_O_69</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="32">
         <v>15</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>M1_O_70</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="32">
         <v>15</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>M1_O_71</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="32">
         <v>15</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>M1_O_72</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="32">
         <v>15</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>M1_I_43</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="32">
         <v>15</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>M1_I_44</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="32">
         <v>15</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>M1_I_45</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="32">
         <v>15</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>M1_I_46</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="32">
         <v>15</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>M1_I_47</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="35">
         <v>15</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>M1_I_48</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>16</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>L2_O_73</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="14">
         <v>16</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>L2_O_74</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="17">
         <v>16</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>L2_I_49</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>17</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>R4_O_75</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>17</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>R4_O_76</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>17</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>R4_O_77</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>17</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>R4_O_78</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>17</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>R4_I_50</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>17</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>R4_I_51</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>17</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>R4_I_52</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="11">
         <v>18</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>L3_O_79</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="14">
         <v>18</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>L3_O_80</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="17">
         <v>18</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>L3_I_53</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="11">
         <v>19</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>L5_O_81</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="14">
         <v>19</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>L5_O_82</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="17">
         <v>19</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>L5_I_54</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="47">
         <v>20</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>P3_O_83</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="50">
         <v>20</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>P3_O_84</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="50">
         <v>20</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>P3_O_85</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="50">
         <v>20</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>P3_O_86</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="50">
         <v>20</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>P3_I_55</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="50">
         <v>20</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>P3_I_56</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="53">
         <v>20</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>P3_I_57</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="47">
         <v>21</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>P2_O_87</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="50">
         <v>21</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>P2_O_88</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="50">
         <v>21</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>P2_O_89</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="50">
         <v>21</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>P2_O_90</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="50">
         <v>21</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>P2_I_58</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="50">
         <v>21</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>P2_I_59</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="53">
         <v>21</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>P2_I_60</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="47">
         <v>22</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>P1_O_91</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="50">
         <v>22</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>P1_O_92</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="50">
         <v>22</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>P1_O_93</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="50">
         <v>22</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>P1_O_94</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="50">
         <v>22</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>P1_I_61</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="50">
         <v>22</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>P1_I_62</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="53">
         <v>22</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>P1_I_63</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>23</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>L6_O_95</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="14">
         <v>23</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>L6_O_96</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="17">
         <v>23</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>L6_I_64</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>24</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>R1_O_97</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>24</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>R1_O_98</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>24</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>R1_O_99</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>24</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>R1_O_100</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>24</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>R1_I_65</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>24</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>R1_I_66</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>24</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>R1_I_67</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="11">
         <v>25</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>L1_O_101</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="14">
         <v>25</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>L1_O_102</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="17">
         <v>25</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>L1_I_68</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="20">
         <v>26</v>
       </c>
@@ -6741,14 +6741,14 @@
         <v>45</v>
       </c>
       <c r="H175" s="67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J175" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>O1_I_69</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+        <v>O3_I_69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="23">
         <v>27</v>
       </c>
@@ -6773,14 +6773,14 @@
       </c>
       <c r="H176" s="67" t="str">
         <f>H175</f>
-        <v>O1</v>
+        <v>O3</v>
       </c>
       <c r="J176" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>O1_I_70</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+        <v>O3_I_70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="26">
         <v>28</v>
       </c>
@@ -6805,14 +6805,14 @@
       </c>
       <c r="H177" s="67" t="str">
         <f>H175</f>
-        <v>O1</v>
+        <v>O3</v>
       </c>
       <c r="J177" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>O1_I_71</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+        <v>O3_I_71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="20">
         <v>30</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>O2_I_72</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="23">
         <v>31</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>O2_I_73</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="26">
         <v>32</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>O2_I_74</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="20">
         <v>34</v>
       </c>
@@ -6931,14 +6931,14 @@
         <v>4B</v>
       </c>
       <c r="H181" s="67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J181" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>O3_I_75</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+        <v>O1_I_75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="23">
         <v>35</v>
       </c>
@@ -6963,14 +6963,14 @@
       </c>
       <c r="H182" s="67" t="str">
         <f>H181</f>
-        <v>O3</v>
+        <v>O1</v>
       </c>
       <c r="J182" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>O3_I_76</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+        <v>O1_I_76</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="26">
         <v>36</v>
       </c>
@@ -6995,14 +6995,14 @@
       </c>
       <c r="H183" s="67" t="str">
         <f>H182</f>
-        <v>O3</v>
+        <v>O1</v>
       </c>
       <c r="J183" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>O3_I_77</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+        <v>O1_I_77</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="38">
         <v>38</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>Wi2_O_103</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="41">
         <v>38</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>Wi2_O_104</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="41">
         <v>38</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>Wi2_O_105</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="44">
         <v>38</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>Wi2_I_78</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="56">
         <v>39</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>Wo2_O_106</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="59">
         <v>39</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>Wo2_O_107</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="59">
         <v>39</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>Wo2_I_79</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="62">
         <v>39</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>Wo2_R_1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>40</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>L8_O_108</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="14">
         <v>40</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>L8_O_109</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="17">
         <v>40</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>L8_I_80</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>41</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>R10_O_110</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>41</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>R10_O_111</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>41</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>R10_O_112</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>41</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>R10_O_113</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>41</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>R10_I_81</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
         <v>41</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>R10_I_82</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="8">
         <v>41</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>R10_I_83</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>42</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>R16_O_114</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>42</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>R16_O_115</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>42</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>R16_O_116</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>42</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>R16_O_117</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>42</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>R16_I_84</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>42</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>R16_I_85</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="8">
         <v>42</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>R16_I_86</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>43</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>R15_O_118</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>43</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>R15_O_119</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>43</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>R15_O_120</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
         <v>43</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>R15_O_121</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
         <v>43</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>R15_I_87</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>43</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>R15_I_88</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="8">
         <v>43</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>R15_I_89</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>44</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>R14_O_122</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
         <v>44</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>R14_O_123</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
         <v>44</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>R14_O_124</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>44</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>R14_O_125</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
         <v>44</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>R14_I_90</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>44</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>R14_I_91</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="8">
         <v>44</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>R14_I_92</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>45</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>R13_O_126</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
         <v>45</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>R13_O_127</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
         <v>45</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>R13_O_128</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
         <v>45</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>R13_O_129</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
         <v>45</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>R13_I_93</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
         <v>45</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>R13_I_94</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="8">
         <v>45</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>R13_I_95</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>46</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>R12_O_130</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
         <v>46</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>R12_O_131</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
         <v>46</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>R12_O_132</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
         <v>46</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>R12_O_133</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
         <v>46</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>R12_I_96</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
         <v>46</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>R12_I_97</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="8">
         <v>46</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>R12_I_98</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>47</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>R11_O_134</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
         <v>47</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>R11_O_135</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>47</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>R11_O_136</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
         <v>47</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>R11_O_137</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>47</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>R11_I_99</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
         <v>47</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>R11_I_100</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" s="8">
         <v>47</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>R11_I_101</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
         <v>48</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>L10_O_138</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" s="14">
         <v>48</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>L10_O_139</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" s="17">
         <v>48</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>L10_I_102</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" s="29">
         <v>49</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>M8_O_140</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" s="32">
         <v>49</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>M8_O_141</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" s="32">
         <v>49</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>M8_O_142</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" s="32">
         <v>49</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>M8_O_143</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" s="32">
         <v>49</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>M8_O_144</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" s="32">
         <v>49</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>M8_O_145</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="32">
         <v>49</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>M8_O_146</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" s="32">
         <v>49</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>M8_O_147</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" s="32">
         <v>49</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>M8_O_148</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" s="32">
         <v>49</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>M8_I_103</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" s="32">
         <v>49</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>M8_I_104</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" s="32">
         <v>49</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>M8_I_105</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" s="32">
         <v>49</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>M8_I_106</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" s="32">
         <v>49</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>M8_I_107</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" s="35">
         <v>49</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>M8_I_108</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" s="29">
         <v>50</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>M7_O_149</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" s="32">
         <v>50</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>M7_O_150</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" s="32">
         <v>50</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>M7_O_151</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" s="32">
         <v>50</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>M7_O_152</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" s="32">
         <v>50</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>M7_O_153</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" s="32">
         <v>50</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>M7_O_154</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" s="32">
         <v>50</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>M7_O_155</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" s="32">
         <v>50</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>M7_O_156</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" s="32">
         <v>50</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>M7_O_157</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" s="32">
         <v>50</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>M7_I_109</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" s="32">
         <v>50</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>M7_I_110</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" s="32">
         <v>50</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>M7_I_111</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" s="32">
         <v>50</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>M7_I_112</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" s="32">
         <v>50</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>M7_I_113</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" s="35">
         <v>50</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>M7_I_114</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" s="29">
         <v>51</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>M6_O_158</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" s="32">
         <v>51</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>M6_O_159</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" s="32">
         <v>51</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>M6_O_160</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" s="32">
         <v>51</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>M6_O_161</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" s="32">
         <v>51</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>M6_O_162</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="32">
         <v>51</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>M6_O_163</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" s="32">
         <v>51</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>M6_O_164</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="32">
         <v>51</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>M6_O_165</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="32">
         <v>51</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>M6_O_166</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" s="32">
         <v>51</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>M6_I_115</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" s="32">
         <v>51</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>M6_I_116</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" s="32">
         <v>51</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>M6_I_117</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" s="32">
         <v>51</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>M6_I_118</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" s="32">
         <v>51</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>M6_I_119</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" s="35">
         <v>51</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>M6_I_120</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" s="29">
         <v>52</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>M5_O_167</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" s="32">
         <v>52</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>M5_O_168</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" s="32">
         <v>52</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>M5_O_169</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" s="32">
         <v>52</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>M5_O_170</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" s="32">
         <v>52</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>M5_O_171</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" s="32">
         <v>52</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>M5_O_172</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" s="32">
         <v>52</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>M5_O_173</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="32">
         <v>52</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>M5_O_174</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="32">
         <v>52</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>M5_O_175</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="32">
         <v>52</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>M5_I_121</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" s="32">
         <v>52</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>M5_I_122</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" s="32">
         <v>52</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>M5_I_123</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="32">
         <v>52</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>M5_I_124</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" s="32">
         <v>52</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>M5_I_125</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" s="35">
         <v>52</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>M5_I_126</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" s="11">
         <v>53</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>L9_O_176</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" s="14">
         <v>53</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>L9_O_177</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" s="17">
         <v>53</v>
       </c>

--- a/sfs/io.xlsx
+++ b/sfs/io.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\II\InfInd2021\sfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4888B89-97BB-425B-84B6-C659E6D6C97C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC0422-6B13-4660-B676-994D9AE0465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="129">
   <si>
     <t>ART1</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>Var Name</t>
+  </si>
+  <si>
+    <t>L8:R10:R11:R12:M5:M#T1|15:M#T2|15:R12:R13:M6:M#T3|15:M#T1|15:R13:R14:?P=1?ID=1_1_1'</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,16 +841,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>204466</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62526</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>33050</xdr:rowOff>
+      <xdr:rowOff>107755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>58608</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>529256</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>96363</xdr:rowOff>
+      <xdr:rowOff>171068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,8 +873,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9103537" y="386836"/>
-          <a:ext cx="10248367" cy="6062430"/>
+          <a:off x="8511761" y="481284"/>
+          <a:ext cx="10268142" cy="6413313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1179,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J309"/>
+  <dimension ref="A1:AE309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L186" sqref="L186"/>
+    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1682,7 +1686,7 @@
         <v>R3_O_10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>4</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>R3_I_3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>R3_I_4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -1777,8 +1781,11 @@
         <f t="shared" si="2"/>
         <v>R3_I_5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="AE19" s="68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -1809,7 +1816,7 @@
         <v>R5_O_11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1841,7 +1848,7 @@
         <v>R5_O_12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>5</v>
       </c>
@@ -1873,7 +1880,7 @@
         <v>R5_O_13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>5</v>
       </c>
@@ -1905,7 +1912,7 @@
         <v>R5_O_14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>5</v>
       </c>
@@ -1937,7 +1944,7 @@
         <v>R5_I_6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>5</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>R5_I_7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>5</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>R5_I_8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -2032,7 +2039,7 @@
         <v>R9_O_15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>6</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>R9_O_16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>6</v>
       </c>
@@ -2096,7 +2103,7 @@
         <v>R9_O_17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>6</v>
       </c>
@@ -2128,7 +2135,7 @@
         <v>R9_O_18</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>6</v>
       </c>
@@ -2160,7 +2167,7 @@
         <v>R9_I_9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>6</v>
       </c>
